--- a/Test-Schedule.xlsx
+++ b/Test-Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Test Plan Schedule</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Automated Regression Test</t>
   </si>
   <si>
-    <t>2 Weeks</t>
-  </si>
-  <si>
     <t>Beta testing</t>
   </si>
   <si>
@@ -71,10 +68,43 @@
     <t>Estimated Delivery:</t>
   </si>
   <si>
-    <t>1-2 Weeks</t>
-  </si>
-  <si>
-    <t>10-12 Weeks</t>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t>Week 3</t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>Week 5</t>
+  </si>
+  <si>
+    <t>Week 6</t>
+  </si>
+  <si>
+    <t>Week 7</t>
+  </si>
+  <si>
+    <t>Week 8</t>
+  </si>
+  <si>
+    <t>Week 9</t>
+  </si>
+  <si>
+    <t>Week 10</t>
+  </si>
+  <si>
+    <t>Week 11</t>
+  </si>
+  <si>
+    <t>Week 12</t>
+  </si>
+  <si>
+    <t>12 Weeks</t>
   </si>
 </sst>
 </file>
@@ -128,7 +158,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -151,17 +181,130 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -444,119 +587,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A2:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="2" max="12" width="10.7109375" customWidth="1"/>
+    <col min="14" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="2" t="s">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="11"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="12"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="12"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="13"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="I8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="2"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3" t="s">
-        <v>16</v>
-      </c>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="I8:M8"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="N4:N7"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="D5:M5"/>
+    <mergeCell ref="E6:F6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Test-Schedule.xlsx
+++ b/Test-Schedule.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Test Plan Schedule</t>
   </si>
@@ -105,13 +105,154 @@
   </si>
   <si>
     <t>12 Weeks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resources Roles/Responsibility </t>
+  </si>
+  <si>
+    <t>Deliverable</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>Unit testing</t>
+  </si>
+  <si>
+    <t>Integration Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                            Responsibility </t>
+  </si>
+  <si>
+    <t>Performance Testing</t>
+  </si>
+  <si>
+    <t>Acceptance Testing</t>
+  </si>
+  <si>
+    <t>install tester</t>
+  </si>
+  <si>
+    <t>Automated Tester</t>
+  </si>
+  <si>
+    <t>Bug Fixes</t>
+  </si>
+  <si>
+    <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Create test cases for unit testing</t>
+  </si>
+  <si>
+    <t>Create a test case for the integration testing of the entire system</t>
+  </si>
+  <si>
+    <t>Performance and stress testing of the game continuously until achieving a fail result.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confirming the system is ready for release. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Making sure the game can be installed onto all listed devices. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is the proces of re running previously completed test to insure no functionality has changed. </t>
+  </si>
+  <si>
+    <t>Fixing any and all glitches/bugs in the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oversees the entire testing process. </t>
+  </si>
+  <si>
+    <t>Ryan/Conor</t>
+  </si>
+  <si>
+    <t>Robert/Liam</t>
+  </si>
+  <si>
+    <t>Conor/Robert</t>
+  </si>
+  <si>
+    <t>Liam/Ryan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robert </t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
+    <t>Conor</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Mitigation Plan</t>
+  </si>
+  <si>
+    <t>Data Corrupion/Loss</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>The team must insure they backup files frequently to avoid any loss of data or progress.</t>
+  </si>
+  <si>
+    <t>Schedule Backlog</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>System Crash</t>
+  </si>
+  <si>
+    <t>Staff Absence</t>
+  </si>
+  <si>
+    <t>Insufficent Testers</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>extra staff have been assigned to the test case to account for possible absences.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project leaders can easily fill this spot or re allocate staff to new roles. </t>
+  </si>
+  <si>
+    <t>Files are stored on multiple servers.</t>
+  </si>
+  <si>
+    <t>The team must follow a stict documenting process so progress can be tracked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Management assigned an extra staff member to assist all project teams. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A number of backups are made  </t>
+  </si>
+  <si>
+    <t>Backup machines are left nearby which can be accessed should the system crash</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +274,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,7 +310,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
     <fill>
@@ -271,29 +462,35 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -305,11 +502,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="5"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="8">
+    <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
+    <cellStyle name="40% - Accent3" xfId="5" builtinId="39"/>
+    <cellStyle name="40% - Accent4" xfId="7" builtinId="43"/>
+    <cellStyle name="60% - Accent3" xfId="6" builtinId="40"/>
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="2" builtinId="10"/>
+    <cellStyle name="Note" xfId="3" builtinId="10"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -587,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:N13"/>
+  <dimension ref="A2:N35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -601,187 +811,189 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="3"/>
+      <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="11"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="13"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="12"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="13"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="8" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
-      <c r="N7" s="13"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="14"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="I8" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="I8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="2" t="s">
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="3" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="4" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="6" t="s">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -794,6 +1006,352 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="18"/>
+      <c r="M17" s="18"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="2"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" s="17"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" s="20"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" s="20"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="8">
